--- a/results/words_scores_edu.xlsx
+++ b/results/words_scores_edu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C155"/>
+  <dimension ref="A1:C144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,11 +451,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">предупреждения  </t>
+          <t xml:space="preserve">поле  </t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.354662764709273</v>
+        <v>0.3370957256696436</v>
       </c>
     </row>
     <row r="3">
@@ -464,11 +464,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">экспериментального  </t>
+          <t xml:space="preserve">динамики  </t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.354662764709273</v>
+        <v>0.3370957256696436</v>
       </c>
     </row>
     <row r="4">
@@ -477,11 +477,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">повреждения  </t>
+          <t xml:space="preserve">виброизоляторов  </t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.354662764709273</v>
+        <v>0.3370957256696436</v>
       </c>
     </row>
     <row r="5">
@@ -490,11 +490,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">мозга  </t>
+          <t xml:space="preserve">тока  </t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.354662764709273</v>
+        <v>0.3370957256696436</v>
       </c>
     </row>
     <row r="6">
@@ -503,11 +503,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">профилактики  </t>
+          <t xml:space="preserve">четырехмерного  </t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.354662764709273</v>
+        <v>0.3370957256696436</v>
       </c>
     </row>
     <row r="7">
@@ -516,11 +516,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">коррекции  </t>
+          <t xml:space="preserve">гравитационного  </t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.3574401887108524</v>
+        <v>0.3370957256696436</v>
       </c>
     </row>
     <row r="8">
@@ -529,11 +529,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">моделирования  </t>
+          <t xml:space="preserve">обнаружения  </t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.3639750434023445</v>
+        <v>0.3370957256696436</v>
       </c>
     </row>
     <row r="9">
@@ -542,11 +542,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">ткани  </t>
+          <t xml:space="preserve">упругих  </t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.3801089321112775</v>
+        <v>0.3370957256696436</v>
       </c>
     </row>
     <row r="10">
@@ -555,11 +555,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">животных  </t>
+          <t xml:space="preserve">исследования  </t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.3801089321112775</v>
+        <v>0.3486366572229389</v>
       </c>
     </row>
     <row r="11">
@@ -568,11 +568,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">эксперименте  </t>
+          <t xml:space="preserve">стенд  </t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.4479406598248076</v>
+        <v>0.396101626201482</v>
       </c>
     </row>
     <row r="12">
@@ -596,11 +596,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">обеспечения  </t>
+          <t xml:space="preserve">предупреждения  </t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.3563755303478308</v>
+        <v>0.3542602573770399</v>
       </c>
     </row>
     <row r="14">
@@ -609,11 +609,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">поле  </t>
+          <t xml:space="preserve">мозга  </t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.3927030394250182</v>
+        <v>0.3542602573770399</v>
       </c>
     </row>
     <row r="15">
@@ -622,11 +622,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">физике  </t>
+          <t xml:space="preserve">экспериментального  </t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.3927030394250182</v>
+        <v>0.3542602573770399</v>
       </c>
     </row>
     <row r="16">
@@ -635,11 +635,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">четырехмерного  </t>
+          <t xml:space="preserve">повреждения  </t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.3927030394250182</v>
+        <v>0.3542602573770399</v>
       </c>
     </row>
     <row r="17">
@@ -648,11 +648,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">тока  </t>
+          <t xml:space="preserve">профилактики  </t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.3927030394250182</v>
+        <v>0.3542602573770399</v>
       </c>
     </row>
     <row r="18">
@@ -661,11 +661,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">состояния  </t>
+          <t xml:space="preserve">коррекции  </t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.3927030394250182</v>
+        <v>0.3577943308910941</v>
       </c>
     </row>
     <row r="19">
@@ -674,11 +674,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">динамики  </t>
+          <t xml:space="preserve">моделирования  </t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.3927030394250182</v>
+        <v>0.3681416186454081</v>
       </c>
     </row>
     <row r="20">
@@ -687,11 +687,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">гравитационного  </t>
+          <t xml:space="preserve">животных  </t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.3927030394250182</v>
+        <v>0.3801119013831613</v>
       </c>
     </row>
     <row r="21">
@@ -700,11 +700,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">обнаружения  </t>
+          <t xml:space="preserve">ткани  </t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.3927030394250182</v>
+        <v>0.3801119013831613</v>
       </c>
     </row>
     <row r="22">
@@ -713,11 +713,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">тепловом  </t>
+          <t xml:space="preserve">эксперименте  </t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.3927030394250182</v>
+        <v>0.4497577278066998</v>
       </c>
     </row>
     <row r="23">
@@ -741,11 +741,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve">тренажёр  </t>
+          <t xml:space="preserve">когнитивных  </t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.3883008837298848</v>
+        <v>0.3816074588651671</v>
       </c>
     </row>
     <row r="25">
@@ -754,11 +754,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve">симуляционных  </t>
+          <t xml:space="preserve">кодирования  </t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.4278827367954124</v>
+        <v>0.3816074588651671</v>
       </c>
     </row>
     <row r="26">
@@ -767,11 +767,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve">контролем  </t>
+          <t xml:space="preserve">наук  </t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.4278827367954124</v>
+        <v>0.3816074588651671</v>
       </c>
     </row>
     <row r="27">
@@ -780,11 +780,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">под  </t>
+          <t xml:space="preserve">реализуемые  </t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.4278827367954124</v>
+        <v>0.3816074588651671</v>
       </c>
     </row>
     <row r="28">
@@ -793,11 +793,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve">ускоренного  </t>
+          <t xml:space="preserve">систем  </t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.4278827367954124</v>
+        <v>0.4239028830479854</v>
       </c>
     </row>
     <row r="29">
@@ -806,11 +806,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve">нейрохирургический  </t>
+          <t xml:space="preserve">визуальной  </t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.4278827367954124</v>
+        <v>0.4664572658080327</v>
       </c>
     </row>
     <row r="30">
@@ -819,11 +819,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve">техники  </t>
+          <t xml:space="preserve">тестирования  </t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.4278827367954124</v>
+        <v>0.4664572658080327</v>
       </c>
     </row>
     <row r="31">
@@ -832,11 +832,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve">навыков  </t>
+          <t xml:space="preserve">сложных  </t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.4476954144410674</v>
+        <v>0.4664572658080327</v>
       </c>
     </row>
     <row r="32">
@@ -845,11 +845,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve">отработки  </t>
+          <t xml:space="preserve">функций  </t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.4755695159049981</v>
+        <v>0.4664572658080327</v>
       </c>
     </row>
     <row r="33">
@@ -858,11 +858,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve">хирургический  </t>
+          <t xml:space="preserve">технических  </t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.4755695159049981</v>
+        <v>0.4824270659783957</v>
       </c>
     </row>
     <row r="34">
@@ -886,11 +886,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve">тренажер  </t>
+          <t xml:space="preserve">тренажёр  </t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.4836567832334365</v>
+        <v>0.3947068697779132</v>
       </c>
     </row>
     <row r="36">
@@ -899,11 +899,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve">границ  </t>
+          <t xml:space="preserve">симуляционных  </t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.4928639672247868</v>
+        <v>0.4343303493206275</v>
       </c>
     </row>
     <row r="37">
@@ -912,11 +912,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve">машин  </t>
+          <t xml:space="preserve">контролем  </t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.4928639672247868</v>
+        <v>0.4343303493206275</v>
       </c>
     </row>
     <row r="38">
@@ -925,11 +925,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve">вождению  </t>
+          <t xml:space="preserve">под  </t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.4928639672247868</v>
+        <v>0.4343303493206275</v>
       </c>
     </row>
     <row r="39">
@@ -938,11 +938,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve">гусеничной  </t>
+          <t xml:space="preserve">ускоренного  </t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.4928639672247868</v>
+        <v>0.4343303493206275</v>
       </c>
     </row>
     <row r="40">
@@ -951,11 +951,11 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve">датчиков  </t>
+          <t xml:space="preserve">нейрохирургический  </t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.4928639672247868</v>
+        <v>0.4343303493206275</v>
       </c>
     </row>
     <row r="41">
@@ -964,11 +964,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve">среде  </t>
+          <t xml:space="preserve">техники  </t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.4928639672247868</v>
+        <v>0.4343303493206275</v>
       </c>
     </row>
     <row r="42">
@@ -977,11 +977,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve">динамический  </t>
+          <t xml:space="preserve">навыков  </t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.4928639672247868</v>
+        <v>0.4574464510457184</v>
       </c>
     </row>
     <row r="43">
@@ -990,11 +990,11 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve">выявления  </t>
+          <t xml:space="preserve">отработки  </t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.5084396647010724</v>
+        <v>0.4834152144635269</v>
       </c>
     </row>
     <row r="44">
@@ -1003,11 +1003,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t xml:space="preserve">вождения  </t>
+          <t xml:space="preserve">хирургический  </t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.5477927902760431</v>
+        <v>0.4834152144635269</v>
       </c>
     </row>
     <row r="45">
@@ -1031,11 +1031,11 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t xml:space="preserve">интерактивного  </t>
+          <t xml:space="preserve">средстве  </t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.4399800075537146</v>
+        <v>0.4660496488102749</v>
       </c>
     </row>
     <row r="47">
@@ -1044,11 +1044,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t xml:space="preserve">работника  </t>
+          <t xml:space="preserve">автодрома  </t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.4399800075537146</v>
+        <v>0.4660496488102749</v>
       </c>
     </row>
     <row r="48">
@@ -1057,11 +1057,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve">оптомеханической  </t>
+          <t xml:space="preserve">чрезвычайной  </t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.4399800075537146</v>
+        <v>0.4660496488102749</v>
       </c>
     </row>
     <row r="49">
@@ -1070,11 +1070,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve">технических  </t>
+          <t xml:space="preserve">машины  </t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.4521105634945775</v>
+        <v>0.4810623473574765</v>
       </c>
     </row>
     <row r="50">
@@ -1083,11 +1083,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t xml:space="preserve">систем  </t>
+          <t xml:space="preserve">вождения  </t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.4871038282105262</v>
+        <v>0.5177042145918332</v>
       </c>
     </row>
     <row r="51">
@@ -1096,11 +1096,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t xml:space="preserve">операторов  </t>
+          <t xml:space="preserve">гусеничной  </t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.493893833722081</v>
+        <v>0.5696750413666459</v>
       </c>
     </row>
     <row r="52">
@@ -1109,11 +1109,11 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t xml:space="preserve">функций  </t>
+          <t xml:space="preserve">машин  </t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.5367572618331424</v>
+        <v>0.5696750413666459</v>
       </c>
     </row>
     <row r="53">
@@ -1122,11 +1122,11 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t xml:space="preserve">сложных  </t>
+          <t xml:space="preserve">вождению  </t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.5367572618331424</v>
+        <v>0.5696750413666459</v>
       </c>
     </row>
     <row r="54">
@@ -1135,11 +1135,11 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t xml:space="preserve">интерактивный  </t>
+          <t xml:space="preserve">динамический  </t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.5367572618331424</v>
+        <v>0.5696750413666459</v>
       </c>
     </row>
     <row r="55">
@@ -1148,11 +1148,11 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t xml:space="preserve">визуальной  </t>
+          <t xml:space="preserve">тренажер  </t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.5367572618331424</v>
+        <v>0.6095376511777577</v>
       </c>
     </row>
     <row r="56">
@@ -1176,11 +1176,11 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t xml:space="preserve">дошкольного  </t>
+          <t xml:space="preserve">творческой  </t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.4775061635091821</v>
+        <v>0.5069615967427286</v>
       </c>
     </row>
     <row r="58">
@@ -1189,11 +1189,11 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t xml:space="preserve">студента  </t>
+          <t xml:space="preserve">возраста  </t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.4775061635091821</v>
+        <v>0.5069615967427286</v>
       </c>
     </row>
     <row r="59">
@@ -1202,11 +1202,11 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t xml:space="preserve">материала  </t>
+          <t xml:space="preserve">дидактико  </t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.4775061635091821</v>
+        <v>0.5069615967427286</v>
       </c>
     </row>
     <row r="60">
@@ -1215,11 +1215,11 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t xml:space="preserve">дидактико  </t>
+          <t xml:space="preserve">дошкольного  </t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.4775061635091821</v>
+        <v>0.5069615967427286</v>
       </c>
     </row>
     <row r="61">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.4775061635091821</v>
+        <v>0.5069615967427286</v>
       </c>
     </row>
     <row r="62">
@@ -1241,11 +1241,11 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t xml:space="preserve">возраста  </t>
+          <t xml:space="preserve">студента  </t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.4775061635091821</v>
+        <v>0.5069615967427286</v>
       </c>
     </row>
     <row r="63">
@@ -1254,11 +1254,11 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t xml:space="preserve">творческой  </t>
+          <t xml:space="preserve">материала  </t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.4775061635091821</v>
+        <v>0.5069615967427286</v>
       </c>
     </row>
     <row r="64">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.5307233863241697</v>
+        <v>0.5642547185512072</v>
       </c>
     </row>
     <row r="65">
@@ -1284,7 +1284,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.5413724733128203</v>
+        <v>0.5777600872353539</v>
       </c>
     </row>
     <row r="66">
@@ -1297,7 +1297,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.5473025679801282</v>
+        <v>0.584905587849312</v>
       </c>
     </row>
     <row r="67">
@@ -1325,7 +1325,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.4972412059769116</v>
+        <v>0.50374703368342</v>
       </c>
     </row>
     <row r="69">
@@ -1338,7 +1338,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.4972412059769116</v>
+        <v>0.50374703368342</v>
       </c>
     </row>
     <row r="70">
@@ -1351,7 +1351,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.4972412059769116</v>
+        <v>0.50374703368342</v>
       </c>
     </row>
     <row r="71">
@@ -1364,7 +1364,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.4972412059769116</v>
+        <v>0.50374703368342</v>
       </c>
     </row>
     <row r="72">
@@ -1377,7 +1377,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.4972412059769116</v>
+        <v>0.50374703368342</v>
       </c>
     </row>
     <row r="73">
@@ -1390,7 +1390,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.4972412059769116</v>
+        <v>0.50374703368342</v>
       </c>
     </row>
     <row r="74">
@@ -1403,7 +1403,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.6066135360893474</v>
+        <v>0.6157543793553023</v>
       </c>
     </row>
     <row r="75">
@@ -1416,7 +1416,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.6066135360893474</v>
+        <v>0.6157543793553023</v>
       </c>
     </row>
     <row r="76">
@@ -1429,7 +1429,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.6066135360893474</v>
+        <v>0.6157543793553023</v>
       </c>
     </row>
     <row r="77">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.6257839959960629</v>
+        <v>0.6368355696660499</v>
       </c>
     </row>
     <row r="78">
@@ -1466,11 +1466,11 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t xml:space="preserve">грамматики  </t>
+          <t xml:space="preserve">иностранным  </t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.5209953945913733</v>
+        <v>0.5278120184599375</v>
       </c>
     </row>
     <row r="80">
@@ -1479,11 +1479,11 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t xml:space="preserve">выделения  </t>
+          <t xml:space="preserve">изучении  </t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.5209953945913733</v>
+        <v>0.5278120184599375</v>
       </c>
     </row>
     <row r="81">
@@ -1492,11 +1492,11 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t xml:space="preserve">иностранным  </t>
+          <t xml:space="preserve">динамичного  </t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.5209953945913733</v>
+        <v>0.5278120184599375</v>
       </c>
     </row>
     <row r="82">
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.5209953945913733</v>
+        <v>0.5278120184599375</v>
       </c>
     </row>
     <row r="83">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.6355926556376599</v>
+        <v>0.6451701749321191</v>
       </c>
     </row>
     <row r="84">
@@ -1535,7 +1535,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.6355926556376599</v>
+        <v>0.6451701749321191</v>
       </c>
     </row>
     <row r="85">
@@ -1548,7 +1548,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.7119604998245749</v>
+        <v>0.7252461655274635</v>
       </c>
     </row>
     <row r="86">
@@ -1561,7 +1561,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.7119604998245749</v>
+        <v>0.7252461655274635</v>
       </c>
     </row>
     <row r="87">
@@ -1574,7 +1574,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.7550208072468955</v>
+        <v>0.769780558490524</v>
       </c>
     </row>
     <row r="88">
@@ -1587,7 +1587,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.7571128089142988</v>
+        <v>0.7704836973322566</v>
       </c>
     </row>
     <row r="89">
@@ -1615,7 +1615,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.548515307241116</v>
+        <v>0.5556919974276869</v>
       </c>
     </row>
     <row r="91">
@@ -1628,7 +1628,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.548515307241116</v>
+        <v>0.5556919974276869</v>
       </c>
     </row>
     <row r="92">
@@ -1641,7 +1641,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.548515307241116</v>
+        <v>0.5556919974276869</v>
       </c>
     </row>
     <row r="93">
@@ -1654,7 +1654,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.6072637424476648</v>
+        <v>0.6172820638695119</v>
       </c>
     </row>
     <row r="94">
@@ -1667,7 +1667,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.6691658014764733</v>
+        <v>0.6792492225449618</v>
       </c>
     </row>
     <row r="95">
@@ -1680,7 +1680,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.6691658014764733</v>
+        <v>0.6792492225449618</v>
       </c>
     </row>
     <row r="96">
@@ -1693,7 +1693,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.6691658014764733</v>
+        <v>0.6792492225449618</v>
       </c>
     </row>
     <row r="97">
@@ -1706,7 +1706,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.6691658014764733</v>
+        <v>0.6792492225449618</v>
       </c>
     </row>
     <row r="98">
@@ -1719,7 +1719,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.69031306477503</v>
+        <v>0.702504245341373</v>
       </c>
     </row>
     <row r="99">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.7971048675459582</v>
+        <v>0.8111820303093933</v>
       </c>
     </row>
     <row r="100">
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.6246515342205143</v>
+        <v>0.6328243791283709</v>
       </c>
     </row>
     <row r="102">
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.6246515342205143</v>
+        <v>0.6328243791283709</v>
       </c>
     </row>
     <row r="103">
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.6246515342205143</v>
+        <v>0.6328243791283709</v>
       </c>
     </row>
     <row r="104">
@@ -1799,7 +1799,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0.6246515342205143</v>
+        <v>0.6328243791283709</v>
       </c>
     </row>
     <row r="105">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0.6246515342205143</v>
+        <v>0.6328243791283709</v>
       </c>
     </row>
     <row r="106">
@@ -1825,7 +1825,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.7620488234732838</v>
+        <v>0.7735318657101597</v>
       </c>
     </row>
     <row r="107">
@@ -1838,7 +1838,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.7620488234732838</v>
+        <v>0.7735318657101597</v>
       </c>
     </row>
     <row r="108">
@@ -1851,7 +1851,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.7620488234732838</v>
+        <v>0.7735318657101597</v>
       </c>
     </row>
     <row r="109">
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0.8469778257224808</v>
+        <v>0.8609508254294348</v>
       </c>
     </row>
     <row r="110">
@@ -1877,7 +1877,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0.8469778257224808</v>
+        <v>0.8609508254294348</v>
       </c>
     </row>
     <row r="111">
@@ -1905,7 +1905,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0.5694851914093366</v>
+        <v>0.576936248345453</v>
       </c>
     </row>
     <row r="113">
@@ -1918,7 +1918,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0.5694851914093366</v>
+        <v>0.576936248345453</v>
       </c>
     </row>
     <row r="114">
@@ -1931,7 +1931,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>0.5694851914093366</v>
+        <v>0.576936248345453</v>
       </c>
     </row>
     <row r="115">
@@ -1944,7 +1944,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.5694851914093366</v>
+        <v>0.576936248345453</v>
       </c>
     </row>
     <row r="116">
@@ -1957,7 +1957,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0.5694851914093366</v>
+        <v>0.576936248345453</v>
       </c>
     </row>
     <row r="117">
@@ -1970,7 +1970,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0.5694851914093366</v>
+        <v>0.576936248345453</v>
       </c>
     </row>
     <row r="118">
@@ -1983,7 +1983,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.5694851914093366</v>
+        <v>0.576936248345453</v>
       </c>
     </row>
     <row r="119">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.5694851914093366</v>
+        <v>0.576936248345453</v>
       </c>
     </row>
     <row r="120">
@@ -2009,7 +2009,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0.6947481857072343</v>
+        <v>0.7052170986098324</v>
       </c>
     </row>
     <row r="121">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0.6947481857072343</v>
+        <v>0.7052170986098324</v>
       </c>
     </row>
     <row r="122">
@@ -2050,7 +2050,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0.600076936145771</v>
+        <v>0.6099766933746716</v>
       </c>
     </row>
     <row r="124">
@@ -2063,7 +2063,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0.641462070571153</v>
+        <v>0.653432187779609</v>
       </c>
     </row>
     <row r="125">
@@ -2076,7 +2076,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0.641462070571153</v>
+        <v>0.653432187779609</v>
       </c>
     </row>
     <row r="126">
@@ -2089,7 +2089,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.661246400624911</v>
+        <v>0.6712104870632969</v>
       </c>
     </row>
     <row r="127">
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0.661246400624911</v>
+        <v>0.6712104870632969</v>
       </c>
     </row>
     <row r="128">
@@ -2115,7 +2115,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>0.661246400624911</v>
+        <v>0.6712104870632969</v>
       </c>
     </row>
     <row r="129">
@@ -2128,7 +2128,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0.661246400624911</v>
+        <v>0.6712104870632969</v>
       </c>
     </row>
     <row r="130">
@@ -2141,7 +2141,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>0.661246400624911</v>
+        <v>0.6712104870632969</v>
       </c>
     </row>
     <row r="131">
@@ -2154,7 +2154,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0.682143391637279</v>
+        <v>0.6941902927955207</v>
       </c>
     </row>
     <row r="132">
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0.682143391637279</v>
+        <v>0.6941902927955207</v>
       </c>
     </row>
     <row r="133">
@@ -2191,11 +2191,11 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t xml:space="preserve">имитационного  </t>
+          <t xml:space="preserve">способы  </t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0.6151143095178464</v>
+        <v>0.8076454427566702</v>
       </c>
     </row>
     <row r="135">
@@ -2204,11 +2204,11 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t xml:space="preserve">перехода  </t>
+          <t xml:space="preserve">устройства  </t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>0.6151143095178464</v>
+        <v>0.8076454427566702</v>
       </c>
     </row>
     <row r="136">
@@ -2217,11 +2217,11 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t xml:space="preserve">грунта  </t>
+          <t xml:space="preserve">их  </t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0.6151143095178464</v>
+        <v>0.8194511740121178</v>
       </c>
     </row>
     <row r="137">
@@ -2230,11 +2230,11 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t xml:space="preserve">изделия  </t>
+          <t xml:space="preserve">имитации  </t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>0.6151143095178464</v>
+        <v>0.8664855551919853</v>
       </c>
     </row>
     <row r="138">
@@ -2243,11 +2243,11 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t xml:space="preserve">воздуха  </t>
+          <t xml:space="preserve">лекарств  </t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>0.6151143095178464</v>
+        <v>0.8818676597090899</v>
       </c>
     </row>
     <row r="139">
@@ -2256,11 +2256,11 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t xml:space="preserve">исследования  </t>
+          <t xml:space="preserve">правильным  </t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0.6320734404181759</v>
+        <v>0.8818676597090899</v>
       </c>
     </row>
     <row r="140">
@@ -2269,11 +2269,11 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t xml:space="preserve">элементов  </t>
+          <t xml:space="preserve">методам  </t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>0.6809957948296959</v>
+        <v>0.8818676597090899</v>
       </c>
     </row>
     <row r="141">
@@ -2282,11 +2282,11 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t xml:space="preserve">стенд  </t>
+          <t xml:space="preserve">введения  </t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>0.6909165425853144</v>
+        <v>0.8906651047348293</v>
       </c>
     </row>
     <row r="142">
@@ -2295,11 +2295,11 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t xml:space="preserve">виброизоляторов  </t>
+          <t xml:space="preserve">обучение  </t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>0.7504138070429827</v>
+        <v>0.8906651047348293</v>
       </c>
     </row>
     <row r="143">
@@ -2308,11 +2308,11 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t xml:space="preserve">упругих  </t>
+          <t xml:space="preserve">смешивания  </t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0.7504138070429827</v>
+        <v>0.9462207118073021</v>
       </c>
     </row>
     <row r="144">
@@ -2325,151 +2325,6 @@
         </is>
       </c>
       <c r="C144" t="inlineStr">
-        <is>
-          <t>##############</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t xml:space="preserve">астрономической  </t>
-        </is>
-      </c>
-      <c r="C145" t="n">
-        <v>0.9617139504851379</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t xml:space="preserve">вселенной  </t>
-        </is>
-      </c>
-      <c r="C146" t="n">
-        <v>0.9617139504851379</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t xml:space="preserve">вывода  </t>
-        </is>
-      </c>
-      <c r="C147" t="n">
-        <v>0.9617139504851379</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t xml:space="preserve">географическая  </t>
-        </is>
-      </c>
-      <c r="C148" t="n">
-        <v>0.9617139504851379</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t xml:space="preserve">геоинформационная  </t>
-        </is>
-      </c>
-      <c r="C149" t="n">
-        <v>0.9617139504851379</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t xml:space="preserve">земляной  </t>
-        </is>
-      </c>
-      <c r="C150" t="n">
-        <v>0.9617139504851379</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t xml:space="preserve">природной  </t>
-        </is>
-      </c>
-      <c r="C151" t="n">
-        <v>0.9617139504851379</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t xml:space="preserve">карта  </t>
-        </is>
-      </c>
-      <c r="C152" t="n">
-        <v>0.9617139504851379</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t xml:space="preserve">масштабных  </t>
-        </is>
-      </c>
-      <c r="C153" t="n">
-        <v>0.9617139504851379</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t xml:space="preserve">карты  </t>
-        </is>
-      </c>
-      <c r="C154" t="n">
-        <v>0.9617139504851379</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>##############</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
         <is>
           <t>##############</t>
         </is>
